--- a/Class_V/Result.xlsx
+++ b/Class_V/Result.xlsx
@@ -2844,7 +2844,7 @@
         <v>64.52</v>
       </c>
       <c r="DY5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:129">
@@ -4011,7 +4011,7 @@
         <v>40.16</v>
       </c>
       <c r="DY8">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:129">
@@ -5567,7 +5567,7 @@
         <v>30.72</v>
       </c>
       <c r="DY12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:129">
@@ -5836,7 +5836,7 @@
         <v>30</v>
       </c>
       <c r="CK13">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="CL13">
         <v>100</v>
@@ -5878,7 +5878,7 @@
         <v>70</v>
       </c>
       <c r="CY13">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="CZ13">
         <v>58</v>
@@ -5944,7 +5944,7 @@
         <v>173</v>
       </c>
       <c r="DU13">
-        <v>407.4</v>
+        <v>417.4</v>
       </c>
       <c r="DV13" t="s">
         <v>173</v>
@@ -5953,7 +5953,7 @@
         <v>1000</v>
       </c>
       <c r="DX13">
-        <v>40.73999999999999</v>
+        <v>41.74</v>
       </c>
       <c r="DY13">
         <v>20</v>
@@ -6345,7 +6345,7 @@
         <v>20.84</v>
       </c>
       <c r="DY14">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:129">
@@ -7003,7 +7003,7 @@
         <v>30</v>
       </c>
       <c r="CK16">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="CL16">
         <v>100</v>
@@ -7045,7 +7045,7 @@
         <v>80</v>
       </c>
       <c r="CY16">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="CZ16">
         <v>94</v>
@@ -7105,13 +7105,13 @@
         <v>173</v>
       </c>
       <c r="DS16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DT16" t="s">
         <v>173</v>
       </c>
       <c r="DU16">
-        <v>617.6</v>
+        <v>677.6</v>
       </c>
       <c r="DV16" t="s">
         <v>173</v>
@@ -7120,10 +7120,10 @@
         <v>1000</v>
       </c>
       <c r="DX16">
-        <v>61.76000000000001</v>
+        <v>67.75999999999999</v>
       </c>
       <c r="DY16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:129">
@@ -7901,7 +7901,7 @@
         <v>44.76</v>
       </c>
       <c r="DY18">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:129">
@@ -8290,7 +8290,7 @@
         <v>25.9</v>
       </c>
       <c r="DY19">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:129">
@@ -8948,7 +8948,7 @@
         <v>30</v>
       </c>
       <c r="CK21">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="CL21">
         <v>100</v>
@@ -8990,7 +8990,7 @@
         <v>74</v>
       </c>
       <c r="CY21">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="CZ21">
         <v>46</v>
@@ -9050,13 +9050,13 @@
         <v>173</v>
       </c>
       <c r="DS21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DT21" t="s">
         <v>173</v>
       </c>
       <c r="DU21">
-        <v>402.2</v>
+        <v>414.2</v>
       </c>
       <c r="DV21" t="s">
         <v>173</v>
@@ -9065,7 +9065,7 @@
         <v>1000</v>
       </c>
       <c r="DX21">
-        <v>40.22000000000001</v>
+        <v>41.42000000000001</v>
       </c>
       <c r="DY21">
         <v>21</v>
@@ -9726,7 +9726,7 @@
         <v>30</v>
       </c>
       <c r="CK23">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="CL23">
         <v>100</v>
@@ -9768,7 +9768,7 @@
         <v>68</v>
       </c>
       <c r="CY23">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="CZ23">
         <v>34</v>
@@ -9834,7 +9834,7 @@
         <v>173</v>
       </c>
       <c r="DU23">
-        <v>284.2</v>
+        <v>294.2</v>
       </c>
       <c r="DV23" t="s">
         <v>174</v>
@@ -9843,7 +9843,7 @@
         <v>1000</v>
       </c>
       <c r="DX23">
-        <v>28.42</v>
+        <v>29.41999999999999</v>
       </c>
       <c r="DY23">
         <v>35</v>
@@ -10235,7 +10235,7 @@
         <v>62.53999999999999</v>
       </c>
       <c r="DY24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:129">
@@ -10504,7 +10504,7 @@
         <v>30</v>
       </c>
       <c r="CK25">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="CL25">
         <v>100</v>
@@ -10546,7 +10546,7 @@
         <v>68</v>
       </c>
       <c r="CY25">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="CZ25">
         <v>30</v>
@@ -10612,7 +10612,7 @@
         <v>173</v>
       </c>
       <c r="DU25">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="DV25" t="s">
         <v>173</v>
@@ -10621,7 +10621,7 @@
         <v>1000</v>
       </c>
       <c r="DX25">
-        <v>34.1</v>
+        <v>34.9</v>
       </c>
       <c r="DY25">
         <v>27</v>
@@ -11013,7 +11013,7 @@
         <v>47.59999999999999</v>
       </c>
       <c r="DY26">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:129">
@@ -11282,7 +11282,7 @@
         <v>30</v>
       </c>
       <c r="CK27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CL27">
         <v>100</v>
@@ -11324,7 +11324,7 @@
         <v>64</v>
       </c>
       <c r="CY27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CZ27">
         <v>30</v>
@@ -11384,13 +11384,13 @@
         <v>173</v>
       </c>
       <c r="DS27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DT27" t="s">
         <v>173</v>
       </c>
       <c r="DU27">
-        <v>194.2</v>
+        <v>244.2</v>
       </c>
       <c r="DV27" t="s">
         <v>174</v>
@@ -11399,10 +11399,10 @@
         <v>1000</v>
       </c>
       <c r="DX27">
-        <v>19.42</v>
+        <v>24.42</v>
       </c>
       <c r="DY27">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:129">
@@ -11671,7 +11671,7 @@
         <v>30</v>
       </c>
       <c r="CK28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CL28">
         <v>100</v>
@@ -11713,7 +11713,7 @@
         <v>66</v>
       </c>
       <c r="CY28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CZ28">
         <v>34</v>
@@ -11779,7 +11779,7 @@
         <v>173</v>
       </c>
       <c r="DU28">
-        <v>260.4</v>
+        <v>270.4</v>
       </c>
       <c r="DV28" t="s">
         <v>174</v>
@@ -11788,10 +11788,10 @@
         <v>1000</v>
       </c>
       <c r="DX28">
-        <v>26.04</v>
+        <v>27.04</v>
       </c>
       <c r="DY28">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:129">
@@ -12449,7 +12449,7 @@
         <v>30</v>
       </c>
       <c r="CK30">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="CL30">
         <v>100</v>
@@ -12491,7 +12491,7 @@
         <v>72</v>
       </c>
       <c r="CY30">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="CZ30">
         <v>52</v>
@@ -12551,13 +12551,13 @@
         <v>173</v>
       </c>
       <c r="DS30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DT30" t="s">
         <v>173</v>
       </c>
       <c r="DU30">
-        <v>439.8</v>
+        <v>489.8</v>
       </c>
       <c r="DV30" t="s">
         <v>173</v>
@@ -12566,10 +12566,10 @@
         <v>1000</v>
       </c>
       <c r="DX30">
-        <v>43.98</v>
+        <v>48.98</v>
       </c>
       <c r="DY30">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:129">
@@ -13227,7 +13227,7 @@
         <v>30</v>
       </c>
       <c r="CK32">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="CL32">
         <v>100</v>
@@ -13269,7 +13269,7 @@
         <v>82</v>
       </c>
       <c r="CY32">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="CZ32">
         <v>62</v>
@@ -13335,7 +13335,7 @@
         <v>173</v>
       </c>
       <c r="DU32">
-        <v>392.4</v>
+        <v>402.4</v>
       </c>
       <c r="DV32" t="s">
         <v>173</v>
@@ -13344,10 +13344,10 @@
         <v>1000</v>
       </c>
       <c r="DX32">
-        <v>39.24</v>
+        <v>40.24</v>
       </c>
       <c r="DY32">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:129">
@@ -13616,7 +13616,7 @@
         <v>30</v>
       </c>
       <c r="CK33">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CL33">
         <v>100</v>
@@ -13658,7 +13658,7 @@
         <v>80</v>
       </c>
       <c r="CY33">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CZ33">
         <v>30</v>
@@ -13724,7 +13724,7 @@
         <v>173</v>
       </c>
       <c r="DU33">
-        <v>319.4</v>
+        <v>329.4</v>
       </c>
       <c r="DV33" t="s">
         <v>173</v>
@@ -13733,10 +13733,10 @@
         <v>1000</v>
       </c>
       <c r="DX33">
-        <v>31.94</v>
+        <v>32.94</v>
       </c>
       <c r="DY33">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:129">
@@ -14394,7 +14394,7 @@
         <v>30</v>
       </c>
       <c r="CK35">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="CL35">
         <v>100</v>
@@ -14436,7 +14436,7 @@
         <v>72</v>
       </c>
       <c r="CY35">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="CZ35">
         <v>30</v>
@@ -14496,13 +14496,13 @@
         <v>173</v>
       </c>
       <c r="DS35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DT35" t="s">
         <v>173</v>
       </c>
       <c r="DU35">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="DV35" t="s">
         <v>174</v>
@@ -14511,10 +14511,10 @@
         <v>1000</v>
       </c>
       <c r="DX35">
-        <v>24.9</v>
+        <v>28.5</v>
       </c>
       <c r="DY35">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:129">
@@ -14783,7 +14783,7 @@
         <v>30</v>
       </c>
       <c r="CK36">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="CL36">
         <v>100</v>
@@ -14825,7 +14825,7 @@
         <v>64</v>
       </c>
       <c r="CY36">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="CZ36">
         <v>38</v>
@@ -14885,25 +14885,25 @@
         <v>173</v>
       </c>
       <c r="DS36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DT36" t="s">
         <v>173</v>
       </c>
       <c r="DU36">
-        <v>285.6</v>
+        <v>307.6</v>
       </c>
       <c r="DV36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DW36">
         <v>1000</v>
       </c>
       <c r="DX36">
-        <v>28.56</v>
+        <v>30.76000000000001</v>
       </c>
       <c r="DY36">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:129">
@@ -16070,7 +16070,7 @@
         <v>40.2</v>
       </c>
       <c r="DY39">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:129">
@@ -16459,7 +16459,7 @@
         <v>45.98</v>
       </c>
       <c r="DY40">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:129">
@@ -16848,7 +16848,7 @@
         <v>32.38</v>
       </c>
       <c r="DY41">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:129">
@@ -17117,7 +17117,7 @@
         <v>30</v>
       </c>
       <c r="CK42">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CL42">
         <v>100</v>
@@ -17159,7 +17159,7 @@
         <v>60</v>
       </c>
       <c r="CY42">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CZ42">
         <v>72</v>
@@ -17225,7 +17225,7 @@
         <v>173</v>
       </c>
       <c r="DU42">
-        <v>534.4</v>
+        <v>544.4</v>
       </c>
       <c r="DV42" t="s">
         <v>173</v>
@@ -17234,7 +17234,7 @@
         <v>1000</v>
       </c>
       <c r="DX42">
-        <v>53.44</v>
+        <v>54.44</v>
       </c>
       <c r="DY42">
         <v>9</v>
@@ -17506,7 +17506,7 @@
         <v>30</v>
       </c>
       <c r="CK43">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="CL43">
         <v>100</v>
@@ -17548,7 +17548,7 @@
         <v>50</v>
       </c>
       <c r="CY43">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="CZ43">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>174</v>
       </c>
       <c r="DU43">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="DV43" t="s">
         <v>174</v>
@@ -17623,7 +17623,7 @@
         <v>1000</v>
       </c>
       <c r="DX43">
-        <v>19.6</v>
+        <v>21.4</v>
       </c>
       <c r="DY43">
         <v>40</v>
